--- a/gd/技能逻辑/技能tips.xlsx
+++ b/gd/技能逻辑/技能tips.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\技能逻辑\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="615">
   <si>
     <t>spellID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2396,6 +2395,78 @@
   </si>
   <si>
     <t>哈皮</t>
+  </si>
+  <si>
+    <t>花刺扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然生长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂冲乱刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粘性喷吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强固阵型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂撕裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吮命咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夺魂斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经毒刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛楚之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜷缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体驱散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2793,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4598,6 +4669,9 @@
       <c r="B84" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="C84" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>546</v>
       </c>
@@ -4615,6 +4689,9 @@
       <c r="B85" s="1" t="s">
         <v>518</v>
       </c>
+      <c r="C85" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>547</v>
       </c>
@@ -4637,6 +4714,9 @@
       <c r="B87" s="1" t="s">
         <v>519</v>
       </c>
+      <c r="C87" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="E87" s="1" t="s">
         <v>548</v>
       </c>
@@ -4758,7 +4838,7 @@
         <v>525</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>554</v>
@@ -4780,6 +4860,9 @@
       <c r="B97" s="1" t="s">
         <v>526</v>
       </c>
+      <c r="C97" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="E97" s="1" t="s">
         <v>555</v>
       </c>
@@ -4802,6 +4885,9 @@
       <c r="B99" s="1" t="s">
         <v>527</v>
       </c>
+      <c r="C99" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="E99" s="1" t="s">
         <v>556</v>
       </c>
@@ -4819,6 +4905,9 @@
       <c r="B100" s="1" t="s">
         <v>528</v>
       </c>
+      <c r="C100" s="1" t="s">
+        <v>602</v>
+      </c>
       <c r="E100" s="1" t="s">
         <v>557</v>
       </c>
@@ -4858,6 +4947,9 @@
       <c r="B103" s="1" t="s">
         <v>530</v>
       </c>
+      <c r="C103" s="1" t="s">
+        <v>603</v>
+      </c>
       <c r="E103" s="1" t="s">
         <v>559</v>
       </c>
@@ -4880,6 +4972,9 @@
       <c r="B105" s="1" t="s">
         <v>531</v>
       </c>
+      <c r="C105" s="1" t="s">
+        <v>604</v>
+      </c>
       <c r="E105" s="1" t="s">
         <v>560</v>
       </c>
@@ -4896,6 +4991,9 @@
       </c>
       <c r="B106" s="1" t="s">
         <v>532</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>561</v>
@@ -4940,6 +5038,9 @@
       <c r="B109" s="1" t="s">
         <v>534</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>606</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>563</v>
       </c>
@@ -4962,6 +5063,9 @@
       <c r="B111" s="1" t="s">
         <v>535</v>
       </c>
+      <c r="C111" s="1" t="s">
+        <v>607</v>
+      </c>
       <c r="E111" s="1" t="s">
         <v>564</v>
       </c>
@@ -4979,6 +5083,9 @@
       <c r="B112" s="1" t="s">
         <v>536</v>
       </c>
+      <c r="C112" s="1" t="s">
+        <v>608</v>
+      </c>
       <c r="E112" s="1" t="s">
         <v>565</v>
       </c>
@@ -5001,6 +5108,9 @@
       <c r="B114" s="1" t="s">
         <v>537</v>
       </c>
+      <c r="C114" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="E114" s="1" t="s">
         <v>566</v>
       </c>
@@ -5018,6 +5128,9 @@
       <c r="B115" s="1" t="s">
         <v>538</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="E115" s="1" t="s">
         <v>567</v>
       </c>
@@ -5040,6 +5153,9 @@
       <c r="B117" s="1" t="s">
         <v>539</v>
       </c>
+      <c r="C117" s="1" t="s">
+        <v>611</v>
+      </c>
       <c r="E117" s="1" t="s">
         <v>568</v>
       </c>
@@ -5057,6 +5173,9 @@
       <c r="B118" s="1" t="s">
         <v>540</v>
       </c>
+      <c r="C118" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="E118" s="1" t="s">
         <v>569</v>
       </c>
@@ -5079,6 +5198,9 @@
       <c r="B120" s="1" t="s">
         <v>541</v>
       </c>
+      <c r="C120" s="1" t="s">
+        <v>613</v>
+      </c>
       <c r="E120" s="1" t="s">
         <v>570</v>
       </c>
@@ -5095,6 +5217,9 @@
       </c>
       <c r="B121" s="1" t="s">
         <v>542</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>571</v>
